--- a/SchedulingData/static3/pso/scheduling1_2.xlsx
+++ b/SchedulingData/static3/pso/scheduling1_2.xlsx
@@ -462,83 +462,83 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>71.09999999999999</v>
+        <v>53</v>
       </c>
       <c r="E2" t="n">
-        <v>25.06</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.5</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>27.44</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>38.3</v>
+        <v>127.7</v>
       </c>
       <c r="E4" t="n">
-        <v>27.36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>127.7</v>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>176.24</v>
       </c>
       <c r="E5" t="n">
-        <v>26.16</v>
+        <v>20.756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -546,165 +546,165 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57.5</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>131.4</v>
+        <v>154</v>
       </c>
       <c r="E6" t="n">
-        <v>22.16</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38.3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>108.28</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
-        <v>23.972</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>121.84</v>
+        <v>58</v>
       </c>
       <c r="E8" t="n">
-        <v>22.596</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D9" t="n">
-        <v>44.46</v>
+        <v>125.7</v>
       </c>
       <c r="E9" t="n">
-        <v>26.744</v>
+        <v>21.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>121.84</v>
+        <v>176.24</v>
       </c>
       <c r="D10" t="n">
-        <v>172.14</v>
+        <v>243.08</v>
       </c>
       <c r="E10" t="n">
-        <v>19.196</v>
+        <v>17.192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>71.09999999999999</v>
+        <v>125.7</v>
       </c>
       <c r="D11" t="n">
-        <v>140.78</v>
+        <v>204.4</v>
       </c>
       <c r="E11" t="n">
-        <v>20.692</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>108.28</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>187.08</v>
+        <v>44.46</v>
       </c>
       <c r="E12" t="n">
-        <v>19.212</v>
+        <v>26.744</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>172.14</v>
+        <v>154</v>
       </c>
       <c r="D13" t="n">
-        <v>220.68</v>
+        <v>223.6</v>
       </c>
       <c r="E13" t="n">
-        <v>16.952</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>243.08</v>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>303.16</v>
       </c>
       <c r="E14" t="n">
-        <v>24.9</v>
+        <v>13.804</v>
       </c>
     </row>
     <row r="15">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>140.78</v>
+        <v>58</v>
       </c>
       <c r="D15" t="n">
-        <v>235.36</v>
+        <v>113.28</v>
       </c>
       <c r="E15" t="n">
-        <v>15.804</v>
+        <v>20.012</v>
       </c>
     </row>
     <row r="16">
@@ -732,55 +732,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>44.46</v>
       </c>
       <c r="D16" t="n">
-        <v>111.64</v>
+        <v>143.94</v>
       </c>
       <c r="E16" t="n">
-        <v>22.136</v>
+        <v>22.376</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>235.36</v>
+        <v>223.6</v>
       </c>
       <c r="D17" t="n">
-        <v>289.5</v>
+        <v>266.84</v>
       </c>
       <c r="E17" t="n">
-        <v>12.5</v>
+        <v>11.356</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>58</v>
+        <v>113.28</v>
       </c>
       <c r="D18" t="n">
-        <v>105.4</v>
+        <v>189.6</v>
       </c>
       <c r="E18" t="n">
-        <v>21.3</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>187.08</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>233.24</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>15.736</v>
+        <v>25.392</v>
       </c>
     </row>
     <row r="20">
@@ -808,17 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>233.24</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>265.16</v>
+        <v>120.18</v>
       </c>
       <c r="E20" t="n">
-        <v>13.184</v>
+        <v>22.752</v>
       </c>
     </row>
     <row r="21">
@@ -827,41 +827,41 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>111.64</v>
+        <v>143.94</v>
       </c>
       <c r="D21" t="n">
-        <v>191.24</v>
+        <v>207.98</v>
       </c>
       <c r="E21" t="n">
-        <v>16.796</v>
+        <v>19.072</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>220.68</v>
+        <v>189.6</v>
       </c>
       <c r="D22" t="n">
-        <v>270.76</v>
+        <v>230.76</v>
       </c>
       <c r="E22" t="n">
-        <v>12.584</v>
+        <v>13.984</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -869,51 +869,51 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>131.4</v>
+        <v>207.98</v>
       </c>
       <c r="D23" t="n">
-        <v>186.9</v>
+        <v>268.38</v>
       </c>
       <c r="E23" t="n">
-        <v>18.24</v>
+        <v>15.152</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>186.9</v>
+        <v>120.18</v>
       </c>
       <c r="D24" t="n">
-        <v>244.84</v>
+        <v>189.96</v>
       </c>
       <c r="E24" t="n">
-        <v>15.536</v>
+        <v>18.384</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>191.24</v>
+        <v>189.96</v>
       </c>
       <c r="D25" t="n">
-        <v>255.84</v>
+        <v>251.66</v>
       </c>
       <c r="E25" t="n">
-        <v>11.476</v>
+        <v>15.824</v>
       </c>
     </row>
   </sheetData>
